--- a/biology/Zoologie/Galerie_des_Hesperiidae/Galerie_des_Hesperiidae.xlsx
+++ b/biology/Zoologie/Galerie_des_Hesperiidae/Galerie_des_Hesperiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Galerie d'identification visuelle des Hesperiidae.</t>
@@ -513,12 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hesperia
+          <t>Hesperia</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Comma
-Ochlodes
-			Ochlodes sylvanus  (Esper, 1778)
-Thymelicus
-			Thymelicus lineola  (Ochsenheimer, 1808)
 </t>
         </is>
       </c>
@@ -544,18 +558,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Heteropterinae</t>
+          <t>Hesperiinae</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carterocephalus
-			Carterocephalus palaemon  (Pallas, 1771)
-			Carterocephalus silvicola   (Meigen, 1829)
-Heteropterus
-			Heteropterus morpheus  (Pallas, 1771)
-Metisella
-			Metisella metis
+          <t>Ochlodes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Ochlodes sylvanus  (Esper, 1778)
 </t>
         </is>
       </c>
@@ -581,15 +596,210 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Hesperiinae</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Thymelicus</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Thymelicus lineola  (Ochsenheimer, 1808)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Galerie_des_Hesperiidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Hesperiidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Heteropterinae</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Carterocephalus</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Carterocephalus palaemon  (Pallas, 1771)
+			Carterocephalus silvicola   (Meigen, 1829)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Galerie_des_Hesperiidae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Hesperiidae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Heteropterinae</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Heteropterus</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Heteropterus morpheus  (Pallas, 1771)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Galerie_des_Hesperiidae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Hesperiidae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Heteropterinae</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Metisella</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Metisella metis
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Galerie_des_Hesperiidae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Hesperiidae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Pyrginae</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erynnis
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Erynnis</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Erynnis tages  (Hoffmannsegg, 1804)
 			Erynnis horatius
-Pyrgus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Galerie_des_Hesperiidae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Hesperiidae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Pyrginae</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Pyrgus</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Pyrgus malvae  (Linnaeus, 1758)
 			Pyrgus carthami
 			Pyrgus armoricanus
@@ -597,9 +807,81 @@
 			Pyrgus alveus
 			Pyrgus albescens
 			Pyrgus centaureae
-Spialia
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Galerie_des_Hesperiidae</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Hesperiidae</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Pyrginae</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Spialia</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Spialia sertorius  (Hoffmannsegg, 1804)
-Urbanus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Galerie_des_Hesperiidae</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerie_des_Hesperiidae</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Pyrginae</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Urbanus</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Urbanus proteus  (Linnaeus, 1758)
 			Urbanus sp. (procne ou simplicius)
  Portail de l’entomologie                     </t>
